--- a/pvv/mpiSolver/plots.xlsx
+++ b/pvv/mpiSolver/plots.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>time</t>
   </si>
@@ -69,13 +69,26 @@
   <si>
     <t>Процент от достижимой производительности</t>
   </si>
+  <si>
+    <t>N, P</t>
+  </si>
+  <si>
+    <t>10^8, 4</t>
+  </si>
+  <si>
+    <t>2 * 10^8, 8</t>
+  </si>
+  <si>
+    <t>4 * 10^8, 16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -311,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -375,12 +388,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -402,6 +409,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2060,6 +2109,1088 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$173</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$172:$F$172</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$173:$F$173</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>213.131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.063299999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.4663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.296099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0724400000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB33-41CB-8BF7-F33651E88A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="401560207"/>
+        <c:axId val="401564783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="401560207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401564783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401564783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="215"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401560207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$180</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpeedUp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$179:$F$179</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$180:$F$180</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2568999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.867699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.135400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B401-4CD4-B3D3-1CC48E0D2133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="415762367"/>
+        <c:axId val="415754463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="415762367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415754463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415754463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415762367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$207:$D$207</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10^8, 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 * 10^8, 8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 * 10^8, 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$208:$D$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34.063299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.3123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.644399999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64C9-427A-8B0F-D30C752D368C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="751986815"/>
+        <c:axId val="751987231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="751986815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Nproc</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751987231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="751987231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>time(sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751986815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2180,6 +3311,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3375,6 +4626,1541 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3815,6 +6601,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4086,10 +6962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4537,7 +7413,7 @@
       <c r="E56" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="30" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4565,386 +7441,386 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="21">
         <v>1</v>
       </c>
-      <c r="C78" s="26">
+      <c r="C78" s="24">
         <v>0.117285</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D78" s="24">
         <v>1.0152600000000001</v>
       </c>
-      <c r="E78" s="26">
+      <c r="E78" s="24">
         <v>1.2239199999999999</v>
       </c>
-      <c r="F78" s="26">
+      <c r="F78" s="24">
         <v>1.22346</v>
       </c>
-      <c r="G78" s="27">
+      <c r="G78" s="25">
         <v>1.3051999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="21">
         <v>2</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="24">
         <v>0.13803099999999999</v>
       </c>
-      <c r="D79" s="26">
+      <c r="D79" s="24">
         <v>0.53390800000000005</v>
       </c>
-      <c r="E79" s="26">
+      <c r="E79" s="24">
         <v>1.5988100000000001</v>
       </c>
-      <c r="F79" s="26">
+      <c r="F79" s="24">
         <v>2.4448699999999999</v>
       </c>
-      <c r="G79" s="27">
+      <c r="G79" s="25">
         <v>2.1134300000000001</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="21">
         <v>4</v>
       </c>
-      <c r="C80" s="26">
+      <c r="C80" s="24">
         <v>5.0552800000000002E-2</v>
       </c>
-      <c r="D80" s="26">
+      <c r="D80" s="24">
         <v>0.50823200000000002</v>
       </c>
-      <c r="E80" s="26">
+      <c r="E80" s="24">
         <v>2.0821900000000002</v>
       </c>
-      <c r="F80" s="26">
+      <c r="F80" s="24">
         <v>4.1936999999999998</v>
       </c>
-      <c r="G80" s="27">
+      <c r="G80" s="25">
         <v>4.2588299999999997</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="21">
         <v>8</v>
       </c>
-      <c r="C81" s="26">
+      <c r="C81" s="24">
         <v>4.0982499999999998E-2</v>
       </c>
-      <c r="D81" s="26">
+      <c r="D81" s="24">
         <v>0.37384000000000001</v>
       </c>
-      <c r="E81" s="26">
+      <c r="E81" s="24">
         <v>2.1013799999999998</v>
       </c>
-      <c r="F81" s="26">
+      <c r="F81" s="24">
         <v>6.2388399999999997</v>
       </c>
-      <c r="G81" s="27">
+      <c r="G81" s="25">
         <v>7.2864699999999996</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="23"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="21">
         <v>10</v>
       </c>
-      <c r="C82" s="26">
+      <c r="C82" s="24">
         <v>3.7536899999999998E-2</v>
       </c>
-      <c r="D82" s="26">
+      <c r="D82" s="24">
         <v>0.44701999999999997</v>
       </c>
-      <c r="E82" s="26">
+      <c r="E82" s="24">
         <v>2.40625</v>
       </c>
-      <c r="F82" s="26">
+      <c r="F82" s="24">
         <v>5.9834199999999997</v>
       </c>
-      <c r="G82" s="27">
+      <c r="G82" s="25">
         <v>6.50556</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="25"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="22">
         <v>16</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C83" s="26">
         <v>1.7347499999999998E-2</v>
       </c>
-      <c r="D83" s="28">
+      <c r="D83" s="26">
         <v>2.8064599999999999E-2</v>
       </c>
-      <c r="E83" s="28">
+      <c r="E83" s="26">
         <v>0.51692000000000005</v>
       </c>
-      <c r="F83" s="28">
+      <c r="F83" s="26">
         <v>5.5456099999999999</v>
       </c>
-      <c r="G83" s="29">
+      <c r="G83" s="27">
         <v>7.15212</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B84" s="21">
         <v>1</v>
       </c>
-      <c r="C84" s="26">
+      <c r="C84" s="24">
         <v>1.3848800000000001</v>
       </c>
-      <c r="D84" s="26">
+      <c r="D84" s="24">
         <v>2.70146</v>
       </c>
-      <c r="E84" s="26">
+      <c r="E84" s="24">
         <v>2.89934</v>
       </c>
-      <c r="F84" s="26">
+      <c r="F84" s="24">
         <v>1.8375699999999999</v>
       </c>
-      <c r="G84" s="27">
+      <c r="G84" s="25">
         <v>2.7118899999999999</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="21">
         <v>2</v>
       </c>
-      <c r="C85" s="26">
+      <c r="C85" s="24">
         <v>1.4005300000000001</v>
       </c>
-      <c r="D85" s="26">
+      <c r="D85" s="24">
         <v>1.6383000000000001</v>
       </c>
-      <c r="E85" s="26">
+      <c r="E85" s="24">
         <v>4.2565999999999997</v>
       </c>
-      <c r="F85" s="26">
+      <c r="F85" s="24">
         <v>5.1111399999999998</v>
       </c>
-      <c r="G85" s="27">
+      <c r="G85" s="25">
         <v>3.2193800000000001</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="21">
         <v>4</v>
       </c>
-      <c r="C86" s="26">
+      <c r="C86" s="24">
         <v>1.0941700000000001</v>
       </c>
-      <c r="D86" s="26">
+      <c r="D86" s="24">
         <v>4.6616900000000001</v>
       </c>
-      <c r="E86" s="26">
+      <c r="E86" s="24">
         <v>6.2618600000000004</v>
       </c>
-      <c r="F86" s="26">
+      <c r="F86" s="24">
         <v>11.054</v>
       </c>
-      <c r="G86" s="27">
+      <c r="G86" s="25">
         <v>9.4203399999999995</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="21">
         <v>8</v>
       </c>
-      <c r="C87" s="26">
+      <c r="C87" s="24">
         <v>0.62354299999999996</v>
       </c>
-      <c r="D87" s="26">
+      <c r="D87" s="24">
         <v>4.5704099999999999</v>
       </c>
-      <c r="E87" s="26">
+      <c r="E87" s="24">
         <v>7.1049100000000003</v>
       </c>
-      <c r="F87" s="26">
+      <c r="F87" s="24">
         <v>12.931900000000001</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G87" s="25">
         <v>10.780099999999999</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="23"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="21">
         <v>10</v>
       </c>
-      <c r="C88" s="26">
+      <c r="C88" s="24">
         <v>0.60232300000000005</v>
       </c>
-      <c r="D88" s="26">
+      <c r="D88" s="24">
         <v>3.87446</v>
       </c>
-      <c r="E88" s="26">
+      <c r="E88" s="24">
         <v>7.9990699999999997</v>
       </c>
-      <c r="F88" s="26">
+      <c r="F88" s="24">
         <v>9.2840299999999996</v>
       </c>
-      <c r="G88" s="27">
+      <c r="G88" s="25">
         <v>10.4717</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="25"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="22">
         <v>16</v>
       </c>
-      <c r="C89" s="28">
+      <c r="C89" s="26">
         <v>0.75403200000000004</v>
       </c>
-      <c r="D89" s="28">
+      <c r="D89" s="26">
         <v>2.2169500000000002</v>
       </c>
-      <c r="E89" s="28">
+      <c r="E89" s="26">
         <v>2.89934</v>
       </c>
-      <c r="F89" s="28">
+      <c r="F89" s="26">
         <v>14.2317</v>
       </c>
-      <c r="G89" s="29">
+      <c r="G89" s="27">
         <v>11.686400000000001</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="21">
         <v>1</v>
       </c>
-      <c r="C90" s="26">
+      <c r="C90" s="24">
         <v>0.82941900000000002</v>
       </c>
-      <c r="D90" s="26">
+      <c r="D90" s="24">
         <v>1.0023599999999999</v>
       </c>
-      <c r="E90" s="26">
+      <c r="E90" s="24">
         <v>1.0656699999999999</v>
       </c>
-      <c r="F90" s="26">
+      <c r="F90" s="24">
         <v>1.07443</v>
       </c>
-      <c r="G90" s="27">
+      <c r="G90" s="25">
         <v>1.0495699999999999</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="21">
         <v>2</v>
       </c>
-      <c r="C91" s="26">
+      <c r="C91" s="24">
         <v>1.34771</v>
       </c>
-      <c r="D91" s="26">
+      <c r="D91" s="24">
         <v>1.20357</v>
       </c>
-      <c r="E91" s="26">
+      <c r="E91" s="24">
         <v>2.06568</v>
       </c>
-      <c r="F91" s="26">
+      <c r="F91" s="24">
         <v>2.0727199999999999</v>
       </c>
-      <c r="G91" s="27">
+      <c r="G91" s="25">
         <v>1.62066</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="23"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="21">
         <v>4</v>
       </c>
-      <c r="C92" s="26">
+      <c r="C92" s="24">
         <v>1.1970400000000001</v>
       </c>
-      <c r="D92" s="26">
+      <c r="D92" s="24">
         <v>2.6794699999999998</v>
       </c>
-      <c r="E92" s="26">
+      <c r="E92" s="24">
         <v>2.9403700000000002</v>
       </c>
-      <c r="F92" s="26">
+      <c r="F92" s="24">
         <v>4.2672400000000001</v>
       </c>
-      <c r="G92" s="27">
+      <c r="G92" s="25">
         <v>3.9350499999999999</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="21">
         <v>8</v>
       </c>
-      <c r="C93" s="26">
+      <c r="C93" s="24">
         <v>0.74270700000000001</v>
       </c>
-      <c r="D93" s="26">
+      <c r="D93" s="24">
         <v>2.7589399999999999</v>
       </c>
-      <c r="E93" s="26">
+      <c r="E93" s="24">
         <v>3.3019599999999998</v>
       </c>
-      <c r="F93" s="26">
+      <c r="F93" s="24">
         <v>5.1990299999999996</v>
       </c>
-      <c r="G93" s="27">
+      <c r="G93" s="25">
         <v>5.1117100000000004</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="21">
         <v>10</v>
       </c>
-      <c r="C94" s="26">
+      <c r="C94" s="24">
         <v>0.70647499999999996</v>
       </c>
-      <c r="D94" s="26">
+      <c r="D94" s="24">
         <v>2.7422399999999998</v>
       </c>
-      <c r="E94" s="26">
+      <c r="E94" s="24">
         <v>3.7055699999999998</v>
       </c>
-      <c r="F94" s="26">
+      <c r="F94" s="24">
         <v>4.43682</v>
       </c>
-      <c r="G94" s="27">
+      <c r="G94" s="25">
         <v>5.8517700000000001</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="25"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="22">
         <v>16</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C95" s="26">
         <v>0.585009</v>
       </c>
-      <c r="D95" s="28">
+      <c r="D95" s="26">
         <v>2.4961600000000002</v>
       </c>
-      <c r="E95" s="28">
+      <c r="E95" s="26">
         <v>3.9525199999999998</v>
       </c>
-      <c r="F95" s="28">
+      <c r="F95" s="26">
         <v>7.1849400000000001</v>
       </c>
-      <c r="G95" s="29">
+      <c r="G95" s="27">
         <v>5.97079</v>
       </c>
     </row>
@@ -4974,489 +7850,489 @@
       </c>
     </row>
     <row r="101" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B101" s="21">
         <v>1</v>
       </c>
-      <c r="C101" s="26">
+      <c r="C101" s="24">
         <f>C78  / ($I$101 * $B101)</f>
         <v>3.2354482758620691</v>
       </c>
-      <c r="D101" s="26">
+      <c r="D101" s="24">
         <f t="shared" ref="D101:G101" si="0">D78  / ($I$101 * $B101)</f>
         <v>28.007172413793107</v>
       </c>
-      <c r="E101" s="26">
+      <c r="E101" s="24">
         <f t="shared" si="0"/>
         <v>33.763310344827588</v>
       </c>
-      <c r="F101" s="26">
+      <c r="F101" s="24">
         <f t="shared" si="0"/>
         <v>33.750620689655172</v>
       </c>
-      <c r="G101" s="26">
+      <c r="G101" s="24">
         <f t="shared" si="0"/>
         <v>36.005517241379309</v>
       </c>
-      <c r="I101" s="30">
+      <c r="I101" s="28">
         <v>3.6249999999999998E-2</v>
       </c>
-      <c r="K101" s="30"/>
+      <c r="K101" s="28"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="23"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="21">
         <v>2</v>
       </c>
-      <c r="C102" s="26">
+      <c r="C102" s="24">
         <f t="shared" ref="C102:G118" si="1">C79  / ($I$101 * $B102)</f>
         <v>1.9038758620689655</v>
       </c>
-      <c r="D102" s="26">
+      <c r="D102" s="24">
         <f t="shared" si="1"/>
         <v>7.36424827586207</v>
       </c>
-      <c r="E102" s="26">
+      <c r="E102" s="24">
         <f t="shared" si="1"/>
         <v>22.052551724137935</v>
       </c>
-      <c r="F102" s="26">
+      <c r="F102" s="24">
         <f t="shared" si="1"/>
         <v>33.722344827586205</v>
       </c>
-      <c r="G102" s="26">
+      <c r="G102" s="24">
         <f t="shared" si="1"/>
         <v>29.150758620689658</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="23"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="21">
         <v>4</v>
       </c>
-      <c r="C103" s="26">
+      <c r="C103" s="24">
         <f t="shared" si="1"/>
         <v>0.34864000000000006</v>
       </c>
-      <c r="D103" s="26">
+      <c r="D103" s="24">
         <f t="shared" si="1"/>
         <v>3.5050482758620691</v>
       </c>
-      <c r="E103" s="26">
+      <c r="E103" s="24">
         <f t="shared" si="1"/>
         <v>14.359931034482761</v>
       </c>
-      <c r="F103" s="26">
+      <c r="F103" s="24">
         <f t="shared" si="1"/>
         <v>28.922068965517241</v>
       </c>
-      <c r="G103" s="26">
+      <c r="G103" s="24">
         <f t="shared" si="1"/>
         <v>29.371241379310344</v>
       </c>
-      <c r="I103" s="30">
+      <c r="I103" s="28">
         <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="23"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="21">
         <v>8</v>
       </c>
-      <c r="C104" s="26">
+      <c r="C104" s="24">
         <f t="shared" si="1"/>
         <v>0.14131896551724138</v>
       </c>
-      <c r="D104" s="26">
+      <c r="D104" s="24">
         <f t="shared" si="1"/>
         <v>1.2891034482758621</v>
       </c>
-      <c r="E104" s="26">
+      <c r="E104" s="24">
         <f t="shared" si="1"/>
         <v>7.2461379310344824</v>
       </c>
-      <c r="F104" s="26">
+      <c r="F104" s="24">
         <f t="shared" si="1"/>
         <v>21.513241379310344</v>
       </c>
-      <c r="G104" s="26">
+      <c r="G104" s="24">
         <f t="shared" si="1"/>
         <v>25.125758620689655</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="23"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="21">
         <v>10</v>
       </c>
-      <c r="C105" s="26">
+      <c r="C105" s="24">
         <f t="shared" si="1"/>
         <v>0.10355006896551724</v>
       </c>
-      <c r="D105" s="26">
+      <c r="D105" s="24">
         <f t="shared" si="1"/>
         <v>1.2331586206896552</v>
       </c>
-      <c r="E105" s="26">
+      <c r="E105" s="24">
         <f t="shared" si="1"/>
         <v>6.6379310344827589</v>
       </c>
-      <c r="F105" s="26">
+      <c r="F105" s="24">
         <f t="shared" si="1"/>
         <v>16.505986206896551</v>
       </c>
-      <c r="G105" s="26">
+      <c r="G105" s="24">
         <f t="shared" si="1"/>
         <v>17.946372413793103</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="25"/>
+      <c r="A106" s="33"/>
       <c r="B106" s="22">
         <v>16</v>
       </c>
-      <c r="C106" s="26">
+      <c r="C106" s="24">
         <f t="shared" si="1"/>
         <v>2.9909482758620688E-2</v>
       </c>
-      <c r="D106" s="26">
+      <c r="D106" s="24">
         <f t="shared" si="1"/>
         <v>4.8387241379310345E-2</v>
       </c>
-      <c r="E106" s="26">
+      <c r="E106" s="24">
         <f t="shared" si="1"/>
         <v>0.89124137931034497</v>
       </c>
-      <c r="F106" s="26">
+      <c r="F106" s="24">
         <f t="shared" si="1"/>
         <v>9.5613965517241386</v>
       </c>
-      <c r="G106" s="26">
+      <c r="G106" s="24">
         <f t="shared" si="1"/>
         <v>12.331241379310345</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="24" t="s">
+      <c r="A107" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B107" s="21">
         <v>1</v>
       </c>
-      <c r="C107" s="26">
+      <c r="C107" s="24">
         <f t="shared" si="1"/>
         <v>38.20358620689656</v>
       </c>
-      <c r="D107" s="26">
+      <c r="D107" s="24">
         <f t="shared" si="1"/>
         <v>74.523034482758618</v>
       </c>
-      <c r="E107" s="26">
+      <c r="E107" s="24">
         <f t="shared" si="1"/>
         <v>79.981793103448283</v>
       </c>
-      <c r="F107" s="26">
+      <c r="F107" s="24">
         <f t="shared" si="1"/>
         <v>50.691586206896552</v>
       </c>
-      <c r="G107" s="26">
+      <c r="G107" s="24">
         <f t="shared" si="1"/>
         <v>74.810758620689654</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="23"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="21">
         <v>2</v>
       </c>
-      <c r="C108" s="26">
+      <c r="C108" s="24">
         <f t="shared" si="1"/>
         <v>19.317655172413794</v>
       </c>
-      <c r="D108" s="26">
+      <c r="D108" s="24">
         <f t="shared" si="1"/>
         <v>22.597241379310347</v>
       </c>
-      <c r="E108" s="26">
+      <c r="E108" s="24">
         <f t="shared" si="1"/>
         <v>58.711724137931036</v>
       </c>
-      <c r="F108" s="26">
+      <c r="F108" s="24">
         <f t="shared" si="1"/>
         <v>70.498482758620696</v>
       </c>
-      <c r="G108" s="26">
+      <c r="G108" s="24">
         <f t="shared" si="1"/>
         <v>44.405241379310347</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="23"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="21">
         <v>4</v>
       </c>
-      <c r="C109" s="26">
+      <c r="C109" s="24">
         <f t="shared" si="1"/>
         <v>7.5460000000000012</v>
       </c>
-      <c r="D109" s="26">
+      <c r="D109" s="24">
         <f t="shared" si="1"/>
         <v>32.149586206896558</v>
       </c>
-      <c r="E109" s="26">
+      <c r="E109" s="24">
         <f t="shared" si="1"/>
         <v>43.185241379310348</v>
       </c>
-      <c r="F109" s="26">
+      <c r="F109" s="24">
         <f t="shared" si="1"/>
         <v>76.2344827586207</v>
       </c>
-      <c r="G109" s="26">
+      <c r="G109" s="24">
         <f t="shared" si="1"/>
         <v>64.967862068965516</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="23"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="21">
         <v>8</v>
       </c>
-      <c r="C110" s="26">
+      <c r="C110" s="24">
         <f t="shared" si="1"/>
         <v>2.1501482758620689</v>
       </c>
-      <c r="D110" s="26">
+      <c r="D110" s="24">
         <f t="shared" si="1"/>
         <v>15.760034482758622</v>
       </c>
-      <c r="E110" s="26">
+      <c r="E110" s="24">
         <f t="shared" si="1"/>
         <v>24.499689655172418</v>
       </c>
-      <c r="F110" s="26">
+      <c r="F110" s="24">
         <f t="shared" si="1"/>
         <v>44.592758620689658</v>
       </c>
-      <c r="G110" s="26">
+      <c r="G110" s="24">
         <f t="shared" si="1"/>
         <v>37.172758620689656</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
+      <c r="A111" s="32"/>
       <c r="B111" s="21">
         <v>10</v>
       </c>
-      <c r="C111" s="26">
+      <c r="C111" s="24">
         <f t="shared" si="1"/>
         <v>1.6615806896551726</v>
       </c>
-      <c r="D111" s="26">
+      <c r="D111" s="24">
         <f t="shared" si="1"/>
         <v>10.68816551724138</v>
       </c>
-      <c r="E111" s="26">
+      <c r="E111" s="24">
         <f t="shared" si="1"/>
         <v>22.066400000000002</v>
       </c>
-      <c r="F111" s="26">
+      <c r="F111" s="24">
         <f t="shared" si="1"/>
         <v>25.611117241379311</v>
       </c>
-      <c r="G111" s="26">
+      <c r="G111" s="24">
         <f t="shared" si="1"/>
         <v>28.88744827586207</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="25"/>
+      <c r="A112" s="33"/>
       <c r="B112" s="22">
         <v>16</v>
       </c>
-      <c r="C112" s="26">
+      <c r="C112" s="24">
         <f t="shared" si="1"/>
         <v>1.3000551724137932</v>
       </c>
-      <c r="D112" s="26">
+      <c r="D112" s="24">
         <f t="shared" si="1"/>
         <v>3.8223275862068973</v>
       </c>
-      <c r="E112" s="26">
+      <c r="E112" s="24">
         <f t="shared" si="1"/>
         <v>4.9988620689655177</v>
       </c>
-      <c r="F112" s="26">
+      <c r="F112" s="24">
         <f t="shared" si="1"/>
         <v>24.53741379310345</v>
       </c>
-      <c r="G112" s="26">
+      <c r="G112" s="24">
         <f t="shared" si="1"/>
         <v>20.148965517241383</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B113" s="21">
         <v>1</v>
       </c>
-      <c r="C113" s="26">
+      <c r="C113" s="24">
         <f t="shared" si="1"/>
         <v>22.880524137931037</v>
       </c>
-      <c r="D113" s="26">
+      <c r="D113" s="24">
         <f t="shared" si="1"/>
         <v>27.651310344827586</v>
       </c>
-      <c r="E113" s="26">
+      <c r="E113" s="24">
         <f t="shared" si="1"/>
         <v>29.397793103448276</v>
       </c>
-      <c r="F113" s="26">
+      <c r="F113" s="24">
         <f t="shared" si="1"/>
         <v>29.639448275862073</v>
       </c>
-      <c r="G113" s="26">
+      <c r="G113" s="24">
         <f t="shared" si="1"/>
         <v>28.953655172413793</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="23"/>
+      <c r="A114" s="32"/>
       <c r="B114" s="21">
         <v>2</v>
       </c>
-      <c r="C114" s="26">
+      <c r="C114" s="24">
         <f t="shared" si="1"/>
         <v>18.589103448275864</v>
       </c>
-      <c r="D114" s="26">
+      <c r="D114" s="24">
         <f t="shared" si="1"/>
         <v>16.600965517241381</v>
       </c>
-      <c r="E114" s="26">
+      <c r="E114" s="24">
         <f t="shared" si="1"/>
         <v>28.492137931034485</v>
       </c>
-      <c r="F114" s="26">
+      <c r="F114" s="24">
         <f t="shared" si="1"/>
         <v>28.589241379310344</v>
       </c>
-      <c r="G114" s="26">
+      <c r="G114" s="24">
         <f t="shared" si="1"/>
         <v>22.353931034482759</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="23"/>
+      <c r="A115" s="32"/>
       <c r="B115" s="21">
         <v>4</v>
       </c>
-      <c r="C115" s="26">
+      <c r="C115" s="24">
         <f t="shared" si="1"/>
         <v>8.2554482758620704</v>
       </c>
-      <c r="D115" s="26">
+      <c r="D115" s="24">
         <f t="shared" si="1"/>
         <v>18.479103448275861</v>
       </c>
-      <c r="E115" s="26">
+      <c r="E115" s="24">
         <f t="shared" si="1"/>
         <v>20.27841379310345</v>
       </c>
-      <c r="F115" s="26">
+      <c r="F115" s="24">
         <f t="shared" si="1"/>
         <v>29.429241379310348</v>
       </c>
-      <c r="G115" s="26">
+      <c r="G115" s="24">
         <f t="shared" si="1"/>
         <v>27.138275862068966</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="23"/>
+      <c r="A116" s="32"/>
       <c r="B116" s="21">
         <v>8</v>
       </c>
-      <c r="C116" s="26">
+      <c r="C116" s="24">
         <f t="shared" si="1"/>
         <v>2.5610586206896553</v>
       </c>
-      <c r="D116" s="26">
+      <c r="D116" s="24">
         <f t="shared" si="1"/>
         <v>9.5135862068965515</v>
       </c>
-      <c r="E116" s="26">
+      <c r="E116" s="24">
         <f t="shared" si="1"/>
         <v>11.386068965517241</v>
       </c>
-      <c r="F116" s="26">
+      <c r="F116" s="24">
         <f t="shared" si="1"/>
         <v>17.927689655172415</v>
       </c>
-      <c r="G116" s="26">
+      <c r="G116" s="24">
         <f t="shared" si="1"/>
         <v>17.626586206896555</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="23"/>
+      <c r="A117" s="32"/>
       <c r="B117" s="21">
         <v>10</v>
       </c>
-      <c r="C117" s="26">
+      <c r="C117" s="24">
         <f t="shared" si="1"/>
         <v>1.9488965517241379</v>
       </c>
-      <c r="D117" s="26">
+      <c r="D117" s="24">
         <f t="shared" si="1"/>
         <v>7.5648</v>
       </c>
-      <c r="E117" s="26">
+      <c r="E117" s="24">
         <f t="shared" si="1"/>
         <v>10.222262068965517</v>
       </c>
-      <c r="F117" s="26">
+      <c r="F117" s="24">
         <f t="shared" si="1"/>
         <v>12.239503448275862</v>
       </c>
-      <c r="G117" s="26">
+      <c r="G117" s="24">
         <f t="shared" si="1"/>
         <v>16.14281379310345</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="25"/>
+      <c r="A118" s="33"/>
       <c r="B118" s="22">
         <v>16</v>
       </c>
-      <c r="C118" s="26">
+      <c r="C118" s="24">
         <f t="shared" si="1"/>
         <v>1.0086362068965518</v>
       </c>
-      <c r="D118" s="26">
+      <c r="D118" s="24">
         <f t="shared" si="1"/>
         <v>4.3037241379310354</v>
       </c>
-      <c r="E118" s="26">
+      <c r="E118" s="24">
         <f t="shared" si="1"/>
         <v>6.8146896551724137</v>
       </c>
-      <c r="F118" s="26">
+      <c r="F118" s="24">
         <f t="shared" si="1"/>
         <v>12.387827586206898</v>
       </c>
-      <c r="G118" s="26">
+      <c r="G118" s="24">
         <f t="shared" si="1"/>
         <v>10.294465517241379</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="125" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="32" t="s">
+      <c r="B125" s="30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5484,248 +8360,248 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="24" t="s">
+      <c r="A127" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B127" s="21">
         <v>1</v>
       </c>
-      <c r="C127" s="26">
+      <c r="C127" s="24">
         <v>0.117285</v>
       </c>
-      <c r="D127" s="26">
+      <c r="D127" s="24">
         <v>1.0152600000000001</v>
       </c>
-      <c r="E127" s="26">
+      <c r="E127" s="24">
         <v>1.2239199999999999</v>
       </c>
-      <c r="F127" s="26">
+      <c r="F127" s="24">
         <v>1.22346</v>
       </c>
-      <c r="G127" s="27">
+      <c r="G127" s="25">
         <v>1.3051999999999999</v>
       </c>
-      <c r="H127" s="31">
+      <c r="H127" s="29">
         <f xml:space="preserve"> MIN($I$127 * $B127, $I$134 * $I$129)</f>
         <v>3.625</v>
       </c>
-      <c r="I127" s="30">
+      <c r="I127" s="28">
         <v>3.625</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="23"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="21">
         <v>2</v>
       </c>
-      <c r="C128" s="26">
+      <c r="C128" s="24">
         <v>0.13803099999999999</v>
       </c>
-      <c r="D128" s="26">
+      <c r="D128" s="24">
         <v>0.53390800000000005</v>
       </c>
-      <c r="E128" s="26">
+      <c r="E128" s="24">
         <v>1.5988100000000001</v>
       </c>
-      <c r="F128" s="26">
+      <c r="F128" s="24">
         <v>2.4448699999999999</v>
       </c>
-      <c r="G128" s="27">
+      <c r="G128" s="25">
         <v>2.1134300000000001</v>
       </c>
-      <c r="H128" s="31">
+      <c r="H128" s="29">
         <f t="shared" ref="H128:H132" si="2" xml:space="preserve"> MIN($I$127 * $B128, $I$134 * $I$129)</f>
         <v>7.25</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="23"/>
+      <c r="A129" s="32"/>
       <c r="B129" s="21">
         <v>4</v>
       </c>
-      <c r="C129" s="26">
+      <c r="C129" s="24">
         <v>5.0552800000000002E-2</v>
       </c>
-      <c r="D129" s="26">
+      <c r="D129" s="24">
         <v>0.50823200000000002</v>
       </c>
-      <c r="E129" s="26">
+      <c r="E129" s="24">
         <v>2.0821900000000002</v>
       </c>
-      <c r="F129" s="26">
+      <c r="F129" s="24">
         <v>4.1936999999999998</v>
       </c>
-      <c r="G129" s="27">
+      <c r="G129" s="25">
         <v>4.2588299999999997</v>
       </c>
-      <c r="H129" s="31">
+      <c r="H129" s="29">
         <f t="shared" si="2"/>
         <v>14.5</v>
       </c>
-      <c r="I129" s="30">
+      <c r="I129" s="28">
         <f xml:space="preserve"> 1 / 12</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="23"/>
+      <c r="A130" s="32"/>
       <c r="B130" s="21">
         <v>8</v>
       </c>
-      <c r="C130" s="26">
+      <c r="C130" s="24">
         <v>4.0982499999999998E-2</v>
       </c>
-      <c r="D130" s="26">
+      <c r="D130" s="24">
         <v>0.37384000000000001</v>
       </c>
-      <c r="E130" s="26">
+      <c r="E130" s="24">
         <v>2.1013799999999998</v>
       </c>
-      <c r="F130" s="26">
+      <c r="F130" s="24">
         <v>6.2388399999999997</v>
       </c>
-      <c r="G130" s="27">
+      <c r="G130" s="25">
         <v>7.2864699999999996</v>
       </c>
-      <c r="H130" s="31">
+      <c r="H130" s="29">
         <f t="shared" si="2"/>
         <v>19.166666666666664</v>
       </c>
-      <c r="I130" s="30">
+      <c r="I130" s="28">
         <f xml:space="preserve"> 3 / 40</f>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="23"/>
+      <c r="A131" s="32"/>
       <c r="B131" s="21">
         <v>10</v>
       </c>
-      <c r="C131" s="26">
+      <c r="C131" s="24">
         <v>3.7536899999999998E-2</v>
       </c>
-      <c r="D131" s="26">
+      <c r="D131" s="24">
         <v>0.44701999999999997</v>
       </c>
-      <c r="E131" s="26">
+      <c r="E131" s="24">
         <v>2.40625</v>
       </c>
-      <c r="F131" s="26">
+      <c r="F131" s="24">
         <v>5.9834199999999997</v>
       </c>
-      <c r="G131" s="27">
+      <c r="G131" s="25">
         <v>6.50556</v>
       </c>
-      <c r="H131" s="31">
+      <c r="H131" s="29">
         <f t="shared" si="2"/>
         <v>19.166666666666664</v>
       </c>
-      <c r="I131" s="30">
+      <c r="I131" s="28">
         <f xml:space="preserve"> 1 / 12</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="25"/>
+      <c r="A132" s="33"/>
       <c r="B132" s="22">
         <v>16</v>
       </c>
-      <c r="C132" s="28">
+      <c r="C132" s="26">
         <v>1.7347499999999998E-2</v>
       </c>
-      <c r="D132" s="28">
+      <c r="D132" s="26">
         <v>2.8064599999999999E-2</v>
       </c>
-      <c r="E132" s="28">
+      <c r="E132" s="26">
         <v>0.51692000000000005</v>
       </c>
-      <c r="F132" s="28">
+      <c r="F132" s="26">
         <v>5.5456099999999999</v>
       </c>
-      <c r="G132" s="29">
+      <c r="G132" s="27">
         <v>7.15212</v>
       </c>
-      <c r="H132" s="31">
+      <c r="H132" s="29">
         <f t="shared" si="2"/>
         <v>19.166666666666664</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="24" t="s">
+      <c r="A133" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B133" s="21">
         <v>1</v>
       </c>
-      <c r="C133" s="26">
+      <c r="C133" s="24">
         <v>1.3848800000000001</v>
       </c>
-      <c r="D133" s="26">
+      <c r="D133" s="24">
         <v>2.70146</v>
       </c>
-      <c r="E133" s="26">
+      <c r="E133" s="24">
         <v>2.89934</v>
       </c>
-      <c r="F133" s="26">
+      <c r="F133" s="24">
         <v>1.8375699999999999</v>
       </c>
-      <c r="G133" s="27">
+      <c r="G133" s="25">
         <v>2.7118899999999999</v>
       </c>
-      <c r="H133" s="31">
+      <c r="H133" s="29">
         <f xml:space="preserve"> MIN($I$127 * $B133, $I$134 * $I$130)</f>
         <v>3.625</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="23"/>
+      <c r="A134" s="32"/>
       <c r="B134" s="21">
         <v>2</v>
       </c>
-      <c r="C134" s="26">
+      <c r="C134" s="24">
         <v>1.4005300000000001</v>
       </c>
-      <c r="D134" s="26">
+      <c r="D134" s="24">
         <v>1.6383000000000001</v>
       </c>
-      <c r="E134" s="26">
+      <c r="E134" s="24">
         <v>4.2565999999999997</v>
       </c>
-      <c r="F134" s="26">
+      <c r="F134" s="24">
         <v>5.1111399999999998</v>
       </c>
-      <c r="G134" s="27">
+      <c r="G134" s="25">
         <v>3.2193800000000001</v>
       </c>
-      <c r="H134" s="31">
+      <c r="H134" s="29">
         <f t="shared" ref="H134:H138" si="3" xml:space="preserve"> MIN($I$127 * $B134, $I$134 * $I$130)</f>
         <v>7.25</v>
       </c>
-      <c r="I134" s="30">
+      <c r="I134" s="28">
         <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="23"/>
+      <c r="A135" s="32"/>
       <c r="B135" s="21">
         <v>4</v>
       </c>
-      <c r="C135" s="26">
+      <c r="C135" s="24">
         <v>1.0941700000000001</v>
       </c>
-      <c r="D135" s="26">
+      <c r="D135" s="24">
         <v>4.6616900000000001</v>
       </c>
-      <c r="E135" s="26">
+      <c r="E135" s="24">
         <v>6.2618600000000004</v>
       </c>
-      <c r="F135" s="26">
+      <c r="F135" s="24">
         <v>11.054</v>
       </c>
-      <c r="G135" s="27">
+      <c r="G135" s="25">
         <v>9.4203399999999995</v>
       </c>
-      <c r="H135" s="31">
+      <c r="H135" s="29">
         <f t="shared" si="3"/>
         <v>14.5</v>
       </c>
@@ -5735,228 +8611,228 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="23"/>
+      <c r="A136" s="32"/>
       <c r="B136" s="21">
         <v>8</v>
       </c>
-      <c r="C136" s="26">
+      <c r="C136" s="24">
         <v>0.62354299999999996</v>
       </c>
-      <c r="D136" s="26">
+      <c r="D136" s="24">
         <v>4.5704099999999999</v>
       </c>
-      <c r="E136" s="26">
+      <c r="E136" s="24">
         <v>7.1049100000000003</v>
       </c>
-      <c r="F136" s="26">
+      <c r="F136" s="24">
         <v>12.931900000000001</v>
       </c>
-      <c r="G136" s="27">
+      <c r="G136" s="25">
         <v>10.780099999999999</v>
       </c>
-      <c r="H136" s="31">
+      <c r="H136" s="29">
         <f t="shared" si="3"/>
         <v>17.25</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="23"/>
+      <c r="A137" s="32"/>
       <c r="B137" s="21">
         <v>10</v>
       </c>
-      <c r="C137" s="26">
+      <c r="C137" s="24">
         <v>0.60232300000000005</v>
       </c>
-      <c r="D137" s="26">
+      <c r="D137" s="24">
         <v>3.87446</v>
       </c>
-      <c r="E137" s="26">
+      <c r="E137" s="24">
         <v>7.9990699999999997</v>
       </c>
-      <c r="F137" s="26">
+      <c r="F137" s="24">
         <v>9.2840299999999996</v>
       </c>
-      <c r="G137" s="27">
+      <c r="G137" s="25">
         <v>10.4717</v>
       </c>
-      <c r="H137" s="31">
+      <c r="H137" s="29">
         <f t="shared" si="3"/>
         <v>17.25</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="25"/>
+      <c r="A138" s="33"/>
       <c r="B138" s="22">
         <v>16</v>
       </c>
-      <c r="C138" s="28">
+      <c r="C138" s="26">
         <v>0.75403200000000004</v>
       </c>
-      <c r="D138" s="28">
+      <c r="D138" s="26">
         <v>2.2169500000000002</v>
       </c>
-      <c r="E138" s="28">
+      <c r="E138" s="26">
         <v>2.89934</v>
       </c>
-      <c r="F138" s="28">
+      <c r="F138" s="26">
         <v>14.2317</v>
       </c>
-      <c r="G138" s="29">
+      <c r="G138" s="27">
         <v>11.686400000000001</v>
       </c>
-      <c r="H138" s="31">
+      <c r="H138" s="29">
         <f t="shared" si="3"/>
         <v>17.25</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B139" s="21">
         <v>1</v>
       </c>
-      <c r="C139" s="26">
+      <c r="C139" s="24">
         <v>0.82941900000000002</v>
       </c>
-      <c r="D139" s="26">
+      <c r="D139" s="24">
         <v>1.0023599999999999</v>
       </c>
-      <c r="E139" s="26">
+      <c r="E139" s="24">
         <v>1.0656699999999999</v>
       </c>
-      <c r="F139" s="26">
+      <c r="F139" s="24">
         <v>1.07443</v>
       </c>
-      <c r="G139" s="27">
+      <c r="G139" s="25">
         <v>1.0495699999999999</v>
       </c>
-      <c r="H139" s="31">
+      <c r="H139" s="29">
         <f xml:space="preserve"> MIN($I$127 * $B139, $I$134 * $I$129)</f>
         <v>3.625</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="23"/>
+      <c r="A140" s="32"/>
       <c r="B140" s="21">
         <v>2</v>
       </c>
-      <c r="C140" s="26">
+      <c r="C140" s="24">
         <v>1.34771</v>
       </c>
-      <c r="D140" s="26">
+      <c r="D140" s="24">
         <v>1.20357</v>
       </c>
-      <c r="E140" s="26">
+      <c r="E140" s="24">
         <v>2.06568</v>
       </c>
-      <c r="F140" s="26">
+      <c r="F140" s="24">
         <v>2.0727199999999999</v>
       </c>
-      <c r="G140" s="27">
+      <c r="G140" s="25">
         <v>1.62066</v>
       </c>
-      <c r="H140" s="31">
+      <c r="H140" s="29">
         <f t="shared" ref="H140:H144" si="4" xml:space="preserve"> MIN($I$127 * $B140, $I$134 * $I$129)</f>
         <v>7.25</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="23"/>
+      <c r="A141" s="32"/>
       <c r="B141" s="21">
         <v>4</v>
       </c>
-      <c r="C141" s="26">
+      <c r="C141" s="24">
         <v>1.1970400000000001</v>
       </c>
-      <c r="D141" s="26">
+      <c r="D141" s="24">
         <v>2.6794699999999998</v>
       </c>
-      <c r="E141" s="26">
+      <c r="E141" s="24">
         <v>2.9403700000000002</v>
       </c>
-      <c r="F141" s="26">
+      <c r="F141" s="24">
         <v>4.2672400000000001</v>
       </c>
-      <c r="G141" s="27">
+      <c r="G141" s="25">
         <v>3.9350499999999999</v>
       </c>
-      <c r="H141" s="31">
+      <c r="H141" s="29">
         <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="23"/>
+      <c r="A142" s="32"/>
       <c r="B142" s="21">
         <v>8</v>
       </c>
-      <c r="C142" s="26">
+      <c r="C142" s="24">
         <v>0.74270700000000001</v>
       </c>
-      <c r="D142" s="26">
+      <c r="D142" s="24">
         <v>2.7589399999999999</v>
       </c>
-      <c r="E142" s="26">
+      <c r="E142" s="24">
         <v>3.3019599999999998</v>
       </c>
-      <c r="F142" s="26">
+      <c r="F142" s="24">
         <v>5.1990299999999996</v>
       </c>
-      <c r="G142" s="27">
+      <c r="G142" s="25">
         <v>5.1117100000000004</v>
       </c>
-      <c r="H142" s="31">
+      <c r="H142" s="29">
         <f t="shared" si="4"/>
         <v>19.166666666666664</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="23"/>
+      <c r="A143" s="32"/>
       <c r="B143" s="21">
         <v>10</v>
       </c>
-      <c r="C143" s="26">
+      <c r="C143" s="24">
         <v>0.70647499999999996</v>
       </c>
-      <c r="D143" s="26">
+      <c r="D143" s="24">
         <v>2.7422399999999998</v>
       </c>
-      <c r="E143" s="26">
+      <c r="E143" s="24">
         <v>3.7055699999999998</v>
       </c>
-      <c r="F143" s="26">
+      <c r="F143" s="24">
         <v>4.43682</v>
       </c>
-      <c r="G143" s="27">
+      <c r="G143" s="25">
         <v>5.8517700000000001</v>
       </c>
-      <c r="H143" s="31">
+      <c r="H143" s="29">
         <f t="shared" si="4"/>
         <v>19.166666666666664</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="25"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="22">
         <v>16</v>
       </c>
-      <c r="C144" s="28">
+      <c r="C144" s="26">
         <v>0.585009</v>
       </c>
-      <c r="D144" s="28">
+      <c r="D144" s="26">
         <v>2.4961600000000002</v>
       </c>
-      <c r="E144" s="28">
+      <c r="E144" s="26">
         <v>3.9525199999999998</v>
       </c>
-      <c r="F144" s="28">
+      <c r="F144" s="26">
         <v>7.1849400000000001</v>
       </c>
-      <c r="G144" s="29">
+      <c r="G144" s="27">
         <v>5.97079</v>
       </c>
-      <c r="H144" s="31">
+      <c r="H144" s="29">
         <f t="shared" si="4"/>
         <v>19.166666666666664</v>
       </c>
@@ -5987,487 +8863,650 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="24" t="s">
+      <c r="A149" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B149" s="21">
         <v>1</v>
       </c>
-      <c r="C149" s="26">
+      <c r="C149" s="24">
         <f xml:space="preserve"> C127 * 100 / $H127</f>
         <v>3.2354482758620691</v>
       </c>
-      <c r="D149" s="26">
+      <c r="D149" s="24">
         <f t="shared" ref="D149:G149" si="5" xml:space="preserve"> D127 * 100 / $H127</f>
         <v>28.007172413793107</v>
       </c>
-      <c r="E149" s="26">
+      <c r="E149" s="24">
         <f t="shared" si="5"/>
         <v>33.763310344827588</v>
       </c>
-      <c r="F149" s="26">
+      <c r="F149" s="24">
         <f t="shared" si="5"/>
         <v>33.750620689655172</v>
       </c>
-      <c r="G149" s="26">
+      <c r="G149" s="24">
         <f t="shared" si="5"/>
         <v>36.005517241379309</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="23"/>
+      <c r="A150" s="32"/>
       <c r="B150" s="21">
         <v>2</v>
       </c>
-      <c r="C150" s="26">
+      <c r="C150" s="24">
         <f t="shared" ref="C150:G166" si="6" xml:space="preserve"> C128 * 100 / $H128</f>
         <v>1.9038758620689653</v>
       </c>
-      <c r="D150" s="26">
+      <c r="D150" s="24">
         <f t="shared" si="6"/>
         <v>7.36424827586207</v>
       </c>
-      <c r="E150" s="26">
+      <c r="E150" s="24">
         <f t="shared" si="6"/>
         <v>22.052551724137931</v>
       </c>
-      <c r="F150" s="26">
+      <c r="F150" s="24">
         <f t="shared" si="6"/>
         <v>33.722344827586205</v>
       </c>
-      <c r="G150" s="26">
+      <c r="G150" s="24">
         <f t="shared" si="6"/>
         <v>29.150758620689658</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="23"/>
+      <c r="A151" s="32"/>
       <c r="B151" s="21">
         <v>4</v>
       </c>
-      <c r="C151" s="26">
+      <c r="C151" s="24">
         <f t="shared" si="6"/>
         <v>0.34864000000000001</v>
       </c>
-      <c r="D151" s="26">
+      <c r="D151" s="24">
         <f t="shared" si="6"/>
         <v>3.5050482758620691</v>
       </c>
-      <c r="E151" s="26">
+      <c r="E151" s="24">
         <f t="shared" si="6"/>
         <v>14.359931034482759</v>
       </c>
-      <c r="F151" s="26">
+      <c r="F151" s="24">
         <f t="shared" si="6"/>
         <v>28.922068965517241</v>
       </c>
-      <c r="G151" s="26">
+      <c r="G151" s="24">
         <f t="shared" si="6"/>
         <v>29.371241379310344</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="23"/>
+      <c r="A152" s="32"/>
       <c r="B152" s="21">
         <v>8</v>
       </c>
-      <c r="C152" s="26">
+      <c r="C152" s="24">
         <f t="shared" si="6"/>
         <v>0.21382173913043481</v>
       </c>
-      <c r="D152" s="26">
+      <c r="D152" s="24">
         <f t="shared" si="6"/>
         <v>1.9504695652173916</v>
       </c>
-      <c r="E152" s="26">
+      <c r="E152" s="24">
         <f t="shared" si="6"/>
         <v>10.963721739130435</v>
       </c>
-      <c r="F152" s="26">
+      <c r="F152" s="24">
         <f t="shared" si="6"/>
         <v>32.550469565217398</v>
       </c>
-      <c r="G152" s="26">
+      <c r="G152" s="24">
         <f t="shared" si="6"/>
         <v>38.016365217391304</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="23"/>
+      <c r="A153" s="32"/>
       <c r="B153" s="21">
         <v>10</v>
       </c>
-      <c r="C153" s="26">
+      <c r="C153" s="24">
         <f t="shared" si="6"/>
         <v>0.19584469565217391</v>
       </c>
-      <c r="D153" s="26">
+      <c r="D153" s="24">
         <f t="shared" si="6"/>
         <v>2.3322782608695656</v>
       </c>
-      <c r="E153" s="26">
+      <c r="E153" s="24">
         <f t="shared" si="6"/>
         <v>12.554347826086959</v>
       </c>
-      <c r="F153" s="26">
+      <c r="F153" s="24">
         <f t="shared" si="6"/>
         <v>31.217843478260871</v>
       </c>
-      <c r="G153" s="26">
+      <c r="G153" s="24">
         <f t="shared" si="6"/>
         <v>33.942052173913048</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="25"/>
+      <c r="A154" s="33"/>
       <c r="B154" s="22">
         <v>16</v>
       </c>
-      <c r="C154" s="26">
+      <c r="C154" s="24">
         <f t="shared" si="6"/>
         <v>9.0508695652173912E-2</v>
       </c>
-      <c r="D154" s="26">
+      <c r="D154" s="24">
         <f t="shared" si="6"/>
         <v>0.14642400000000003</v>
       </c>
-      <c r="E154" s="26">
+      <c r="E154" s="24">
         <f t="shared" si="6"/>
         <v>2.6969739130434789</v>
       </c>
-      <c r="F154" s="26">
+      <c r="F154" s="24">
         <f t="shared" si="6"/>
         <v>28.933617391304352</v>
       </c>
-      <c r="G154" s="26">
+      <c r="G154" s="24">
         <f t="shared" si="6"/>
         <v>37.315408695652181</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="24" t="s">
+      <c r="A155" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B155" s="21">
         <v>1</v>
       </c>
-      <c r="C155" s="26">
+      <c r="C155" s="24">
         <f t="shared" si="6"/>
         <v>38.203586206896553</v>
       </c>
-      <c r="D155" s="26">
+      <c r="D155" s="24">
         <f t="shared" si="6"/>
         <v>74.523034482758618</v>
       </c>
-      <c r="E155" s="26">
+      <c r="E155" s="24">
         <f t="shared" si="6"/>
         <v>79.981793103448283</v>
       </c>
-      <c r="F155" s="26">
+      <c r="F155" s="24">
         <f t="shared" si="6"/>
         <v>50.691586206896552</v>
       </c>
-      <c r="G155" s="26">
+      <c r="G155" s="24">
         <f t="shared" si="6"/>
         <v>74.81075862068964</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="23"/>
+      <c r="A156" s="32"/>
       <c r="B156" s="21">
         <v>2</v>
       </c>
-      <c r="C156" s="26">
+      <c r="C156" s="24">
         <f t="shared" si="6"/>
         <v>19.317655172413794</v>
       </c>
-      <c r="D156" s="26">
+      <c r="D156" s="24">
         <f t="shared" si="6"/>
         <v>22.597241379310347</v>
       </c>
-      <c r="E156" s="26">
+      <c r="E156" s="24">
         <f t="shared" si="6"/>
         <v>58.711724137931029</v>
       </c>
-      <c r="F156" s="26">
+      <c r="F156" s="24">
         <f t="shared" si="6"/>
         <v>70.498482758620682</v>
       </c>
-      <c r="G156" s="26">
+      <c r="G156" s="24">
         <f t="shared" si="6"/>
         <v>44.40524137931034</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="23"/>
+      <c r="A157" s="32"/>
       <c r="B157" s="21">
         <v>4</v>
       </c>
-      <c r="C157" s="26">
+      <c r="C157" s="24">
         <f t="shared" si="6"/>
         <v>7.5460000000000003</v>
       </c>
-      <c r="D157" s="26">
+      <c r="D157" s="24">
         <f t="shared" si="6"/>
         <v>32.149586206896551</v>
       </c>
-      <c r="E157" s="26">
+      <c r="E157" s="24">
         <f t="shared" si="6"/>
         <v>43.185241379310348</v>
       </c>
-      <c r="F157" s="26">
+      <c r="F157" s="24">
         <f t="shared" si="6"/>
         <v>76.2344827586207</v>
       </c>
-      <c r="G157" s="26">
+      <c r="G157" s="24">
         <f t="shared" si="6"/>
         <v>64.967862068965516</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="23"/>
+      <c r="A158" s="32"/>
       <c r="B158" s="21">
         <v>8</v>
       </c>
-      <c r="C158" s="26">
+      <c r="C158" s="24">
         <f t="shared" si="6"/>
         <v>3.614742028985507</v>
       </c>
-      <c r="D158" s="26">
+      <c r="D158" s="24">
         <f t="shared" si="6"/>
         <v>26.49513043478261</v>
       </c>
-      <c r="E158" s="26">
+      <c r="E158" s="24">
         <f t="shared" si="6"/>
         <v>41.187884057971011</v>
       </c>
-      <c r="F158" s="26">
+      <c r="F158" s="24">
         <f t="shared" si="6"/>
         <v>74.967536231884054</v>
       </c>
-      <c r="G158" s="26">
+      <c r="G158" s="24">
         <f t="shared" si="6"/>
         <v>62.493333333333332</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="23"/>
+      <c r="A159" s="32"/>
       <c r="B159" s="21">
         <v>10</v>
       </c>
-      <c r="C159" s="26">
+      <c r="C159" s="24">
         <f t="shared" si="6"/>
         <v>3.4917275362318843</v>
       </c>
-      <c r="D159" s="26">
+      <c r="D159" s="24">
         <f t="shared" si="6"/>
         <v>22.460637681159422</v>
       </c>
-      <c r="E159" s="26">
+      <c r="E159" s="24">
         <f t="shared" si="6"/>
         <v>46.371420289855067</v>
       </c>
-      <c r="F159" s="26">
+      <c r="F159" s="24">
         <f t="shared" si="6"/>
         <v>53.820463768115935</v>
       </c>
-      <c r="G159" s="26">
+      <c r="G159" s="24">
         <f t="shared" si="6"/>
         <v>60.705507246376818</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="25"/>
+      <c r="A160" s="33"/>
       <c r="B160" s="22">
         <v>16</v>
       </c>
-      <c r="C160" s="26">
+      <c r="C160" s="24">
         <f t="shared" si="6"/>
         <v>4.3712</v>
       </c>
-      <c r="D160" s="26">
+      <c r="D160" s="24">
         <f t="shared" si="6"/>
         <v>12.851884057971017</v>
       </c>
-      <c r="E160" s="26">
+      <c r="E160" s="24">
         <f t="shared" si="6"/>
         <v>16.807768115942032</v>
       </c>
-      <c r="F160" s="26">
+      <c r="F160" s="24">
         <f t="shared" si="6"/>
         <v>82.502608695652185</v>
       </c>
-      <c r="G160" s="26">
+      <c r="G160" s="24">
         <f t="shared" si="6"/>
         <v>67.747246376811603</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="24" t="s">
+      <c r="A161" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B161" s="21">
         <v>1</v>
       </c>
-      <c r="C161" s="26">
+      <c r="C161" s="24">
         <f t="shared" si="6"/>
         <v>22.880524137931037</v>
       </c>
-      <c r="D161" s="26">
+      <c r="D161" s="24">
         <f t="shared" si="6"/>
         <v>27.651310344827582</v>
       </c>
-      <c r="E161" s="26">
+      <c r="E161" s="24">
         <f t="shared" si="6"/>
         <v>29.397793103448272</v>
       </c>
-      <c r="F161" s="26">
+      <c r="F161" s="24">
         <f t="shared" si="6"/>
         <v>29.639448275862069</v>
       </c>
-      <c r="G161" s="26">
+      <c r="G161" s="24">
         <f t="shared" si="6"/>
         <v>28.953655172413793</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="23"/>
+      <c r="A162" s="32"/>
       <c r="B162" s="21">
         <v>2</v>
       </c>
-      <c r="C162" s="26">
+      <c r="C162" s="24">
         <f t="shared" si="6"/>
         <v>18.589103448275861</v>
       </c>
-      <c r="D162" s="26">
+      <c r="D162" s="24">
         <f t="shared" si="6"/>
         <v>16.600965517241381</v>
       </c>
-      <c r="E162" s="26">
+      <c r="E162" s="24">
         <f t="shared" si="6"/>
         <v>28.492137931034481</v>
       </c>
-      <c r="F162" s="26">
+      <c r="F162" s="24">
         <f t="shared" si="6"/>
         <v>28.589241379310344</v>
       </c>
-      <c r="G162" s="26">
+      <c r="G162" s="24">
         <f t="shared" si="6"/>
         <v>22.353931034482759</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="23"/>
+      <c r="A163" s="32"/>
       <c r="B163" s="21">
         <v>4</v>
       </c>
-      <c r="C163" s="26">
+      <c r="C163" s="24">
         <f t="shared" si="6"/>
         <v>8.2554482758620686</v>
       </c>
-      <c r="D163" s="26">
+      <c r="D163" s="24">
         <f t="shared" si="6"/>
         <v>18.479103448275861</v>
       </c>
-      <c r="E163" s="26">
+      <c r="E163" s="24">
         <f t="shared" si="6"/>
         <v>20.27841379310345</v>
       </c>
-      <c r="F163" s="26">
+      <c r="F163" s="24">
         <f t="shared" si="6"/>
         <v>29.429241379310344</v>
       </c>
-      <c r="G163" s="26">
+      <c r="G163" s="24">
         <f t="shared" si="6"/>
         <v>27.138275862068966</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="23"/>
+      <c r="A164" s="32"/>
       <c r="B164" s="21">
         <v>8</v>
       </c>
-      <c r="C164" s="26">
+      <c r="C164" s="24">
         <f t="shared" si="6"/>
         <v>3.8749930434782618</v>
       </c>
-      <c r="D164" s="26">
+      <c r="D164" s="24">
         <f t="shared" si="6"/>
         <v>14.394469565217394</v>
       </c>
-      <c r="E164" s="26">
+      <c r="E164" s="24">
         <f t="shared" si="6"/>
         <v>17.227617391304349</v>
       </c>
-      <c r="F164" s="26">
+      <c r="F164" s="24">
         <f t="shared" si="6"/>
         <v>27.125373913043475</v>
       </c>
-      <c r="G164" s="26">
+      <c r="G164" s="24">
         <f t="shared" si="6"/>
         <v>26.669791304347832</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="23"/>
+      <c r="A165" s="32"/>
       <c r="B165" s="21">
         <v>10</v>
       </c>
-      <c r="C165" s="26">
+      <c r="C165" s="24">
         <f t="shared" si="6"/>
         <v>3.6859565217391306</v>
       </c>
-      <c r="D165" s="26">
+      <c r="D165" s="24">
         <f t="shared" si="6"/>
         <v>14.307339130434784</v>
       </c>
-      <c r="E165" s="26">
+      <c r="E165" s="24">
         <f t="shared" si="6"/>
         <v>19.333408695652174</v>
       </c>
-      <c r="F165" s="26">
+      <c r="F165" s="24">
         <f t="shared" si="6"/>
         <v>23.148626086956526</v>
       </c>
-      <c r="G165" s="26">
+      <c r="G165" s="24">
         <f t="shared" si="6"/>
         <v>30.530973913043482</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="25"/>
+      <c r="A166" s="33"/>
       <c r="B166" s="22">
         <v>16</v>
       </c>
-      <c r="C166" s="26">
+      <c r="C166" s="24">
         <f t="shared" si="6"/>
         <v>3.0522208695652178</v>
       </c>
-      <c r="D166" s="26">
+      <c r="D166" s="24">
         <f t="shared" si="6"/>
         <v>13.023443478260871</v>
       </c>
-      <c r="E166" s="26">
+      <c r="E166" s="24">
         <f t="shared" si="6"/>
         <v>20.621843478260871</v>
       </c>
-      <c r="F166" s="26">
+      <c r="F166" s="24">
         <f t="shared" si="6"/>
         <v>37.486643478260874</v>
       </c>
-      <c r="G166" s="26">
+      <c r="G166" s="24">
         <f t="shared" si="6"/>
         <v>31.151947826086957</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="34"/>
+      <c r="B172" s="39">
+        <v>1</v>
+      </c>
+      <c r="C172" s="39">
+        <v>4</v>
+      </c>
+      <c r="D172" s="39">
+        <v>8</v>
+      </c>
+      <c r="E172" s="39">
+        <v>12</v>
+      </c>
+      <c r="F172" s="40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="41">
+        <v>213.131</v>
+      </c>
+      <c r="C173" s="41">
+        <v>34.063299999999998</v>
+      </c>
+      <c r="D173" s="41">
+        <v>13.4663</v>
+      </c>
+      <c r="E173" s="41">
+        <v>11.296099999999999</v>
+      </c>
+      <c r="F173" s="42">
+        <v>7.0724400000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="34"/>
+      <c r="B175" s="39">
+        <v>1</v>
+      </c>
+      <c r="C175" s="39">
+        <v>4</v>
+      </c>
+      <c r="D175" s="39">
+        <v>8</v>
+      </c>
+      <c r="E175" s="39">
+        <v>12</v>
+      </c>
+      <c r="F175" s="40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="41">
+        <v>213.131</v>
+      </c>
+      <c r="C176" s="41">
+        <v>34.063299999999998</v>
+      </c>
+      <c r="D176" s="41">
+        <v>13.4663</v>
+      </c>
+      <c r="E176" s="41">
+        <v>11.296099999999999</v>
+      </c>
+      <c r="F176" s="42">
+        <v>7.0724400000000003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="43">
+        <v>1</v>
+      </c>
+      <c r="C177" s="43">
+        <v>6.2568999999999999</v>
+      </c>
+      <c r="D177" s="43">
+        <v>15.827</v>
+      </c>
+      <c r="E177" s="43">
+        <v>18.867699999999999</v>
+      </c>
+      <c r="F177" s="44">
+        <v>30.135400000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="179" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="34"/>
+      <c r="B179" s="39">
+        <v>1</v>
+      </c>
+      <c r="C179" s="39">
+        <v>4</v>
+      </c>
+      <c r="D179" s="39">
+        <v>8</v>
+      </c>
+      <c r="E179" s="39">
+        <v>12</v>
+      </c>
+      <c r="F179" s="40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" s="43">
+        <v>1</v>
+      </c>
+      <c r="C180" s="43">
+        <v>6.2568999999999999</v>
+      </c>
+      <c r="D180" s="43">
+        <v>15.827</v>
+      </c>
+      <c r="E180" s="43">
+        <v>18.867699999999999</v>
+      </c>
+      <c r="F180" s="44">
+        <v>30.135400000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="207" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="22">
+        <v>34.063299999999998</v>
+      </c>
+      <c r="C208" s="22">
+        <v>32.3123</v>
+      </c>
+      <c r="D208" s="38">
+        <v>35.644399999999997</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="A155:A160"/>
     <mergeCell ref="A161:A166"/>
     <mergeCell ref="A78:A83"/>
     <mergeCell ref="A84:A89"/>
@@ -6475,6 +9514,11 @@
     <mergeCell ref="A101:A106"/>
     <mergeCell ref="A107:A112"/>
     <mergeCell ref="A113:A118"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="A139:A144"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="A155:A160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/pvv/mpiSolver/plots.xlsx
+++ b/pvv/mpiSolver/plots.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
   <si>
     <t>time</t>
   </si>
@@ -81,6 +81,33 @@
   <si>
     <t>4 * 10^8, 16</t>
   </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>Nt/Np</t>
+  </si>
+  <si>
+    <t>timeOMP</t>
+  </si>
+  <si>
+    <t>accelerationOMP</t>
+  </si>
+  <si>
+    <t>timeMPI</t>
+  </si>
+  <si>
+    <t>accelerationMPI</t>
+  </si>
+  <si>
+    <t>SpMV + sync</t>
+  </si>
+  <si>
+    <t>Solver</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -88,7 +115,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -324,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -410,15 +437,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -440,17 +458,44 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3191,6 +3236,467 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time/SpeedUp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$235</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$234:$H$234</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$235:$H$235</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25.621200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3167299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1716899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6113599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81815000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41514099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8C2-498F-8427-AB23358E92A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$236</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpeedUp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$234:$H$234</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$236:$H$236</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0265607821114164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0560859811959675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0780908600777508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.900357462019663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.316017845138422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.716862463596712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8C2-498F-8427-AB23358E92A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1814744847"/>
+        <c:axId val="1654891807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1814744847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654891807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1654891807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="62"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814744847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3431,6 +3937,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6161,6 +6707,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6696,6 +7758,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6962,16 +8054,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K209"/>
+  <dimension ref="A1:K289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="E261" sqref="E261:F288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -7441,7 +8532,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="21">
@@ -7464,7 +8555,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="21">
         <v>2</v>
       </c>
@@ -7485,7 +8576,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="21">
         <v>4</v>
       </c>
@@ -7506,7 +8597,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="21">
         <v>8</v>
       </c>
@@ -7527,7 +8618,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="21">
         <v>10</v>
       </c>
@@ -7548,7 +8639,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="33"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="22">
         <v>16</v>
       </c>
@@ -7569,7 +8660,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B84" s="21">
@@ -7592,7 +8683,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="21">
         <v>2</v>
       </c>
@@ -7613,7 +8704,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
+      <c r="A86" s="43"/>
       <c r="B86" s="21">
         <v>4</v>
       </c>
@@ -7634,7 +8725,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
+      <c r="A87" s="43"/>
       <c r="B87" s="21">
         <v>8</v>
       </c>
@@ -7655,7 +8746,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
+      <c r="A88" s="43"/>
       <c r="B88" s="21">
         <v>10</v>
       </c>
@@ -7676,7 +8767,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="33"/>
+      <c r="A89" s="44"/>
       <c r="B89" s="22">
         <v>16</v>
       </c>
@@ -7697,7 +8788,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="21">
@@ -7720,7 +8811,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="32"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="21">
         <v>2</v>
       </c>
@@ -7741,7 +8832,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="32"/>
+      <c r="A92" s="43"/>
       <c r="B92" s="21">
         <v>4</v>
       </c>
@@ -7762,7 +8853,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="32"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="21">
         <v>8</v>
       </c>
@@ -7783,7 +8874,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="32"/>
+      <c r="A94" s="43"/>
       <c r="B94" s="21">
         <v>10</v>
       </c>
@@ -7804,7 +8895,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="33"/>
+      <c r="A95" s="44"/>
       <c r="B95" s="22">
         <v>16</v>
       </c>
@@ -7850,7 +8941,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B101" s="21">
@@ -7882,7 +8973,7 @@
       <c r="K101" s="28"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="32"/>
+      <c r="A102" s="43"/>
       <c r="B102" s="21">
         <v>2</v>
       </c>
@@ -7908,7 +8999,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="32"/>
+      <c r="A103" s="43"/>
       <c r="B103" s="21">
         <v>4</v>
       </c>
@@ -7937,7 +9028,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="32"/>
+      <c r="A104" s="43"/>
       <c r="B104" s="21">
         <v>8</v>
       </c>
@@ -7963,7 +9054,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="32"/>
+      <c r="A105" s="43"/>
       <c r="B105" s="21">
         <v>10</v>
       </c>
@@ -7989,7 +9080,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="33"/>
+      <c r="A106" s="44"/>
       <c r="B106" s="22">
         <v>16</v>
       </c>
@@ -8015,7 +9106,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B107" s="21">
@@ -8043,7 +9134,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="32"/>
+      <c r="A108" s="43"/>
       <c r="B108" s="21">
         <v>2</v>
       </c>
@@ -8069,7 +9160,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="32"/>
+      <c r="A109" s="43"/>
       <c r="B109" s="21">
         <v>4</v>
       </c>
@@ -8095,7 +9186,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="32"/>
+      <c r="A110" s="43"/>
       <c r="B110" s="21">
         <v>8</v>
       </c>
@@ -8121,7 +9212,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="32"/>
+      <c r="A111" s="43"/>
       <c r="B111" s="21">
         <v>10</v>
       </c>
@@ -8147,7 +9238,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="33"/>
+      <c r="A112" s="44"/>
       <c r="B112" s="22">
         <v>16</v>
       </c>
@@ -8173,7 +9264,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B113" s="21">
@@ -8201,7 +9292,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="32"/>
+      <c r="A114" s="43"/>
       <c r="B114" s="21">
         <v>2</v>
       </c>
@@ -8227,7 +9318,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="32"/>
+      <c r="A115" s="43"/>
       <c r="B115" s="21">
         <v>4</v>
       </c>
@@ -8253,7 +9344,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="32"/>
+      <c r="A116" s="43"/>
       <c r="B116" s="21">
         <v>8</v>
       </c>
@@ -8279,7 +9370,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="32"/>
+      <c r="A117" s="43"/>
       <c r="B117" s="21">
         <v>10</v>
       </c>
@@ -8305,7 +9396,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="33"/>
+      <c r="A118" s="44"/>
       <c r="B118" s="22">
         <v>16</v>
       </c>
@@ -8360,7 +9451,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="31" t="s">
+      <c r="A127" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B127" s="21">
@@ -8390,7 +9481,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="32"/>
+      <c r="A128" s="43"/>
       <c r="B128" s="21">
         <v>2</v>
       </c>
@@ -8415,7 +9506,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="32"/>
+      <c r="A129" s="43"/>
       <c r="B129" s="21">
         <v>4</v>
       </c>
@@ -8444,7 +9535,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="32"/>
+      <c r="A130" s="43"/>
       <c r="B130" s="21">
         <v>8</v>
       </c>
@@ -8473,7 +9564,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="32"/>
+      <c r="A131" s="43"/>
       <c r="B131" s="21">
         <v>10</v>
       </c>
@@ -8502,7 +9593,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="33"/>
+      <c r="A132" s="44"/>
       <c r="B132" s="22">
         <v>16</v>
       </c>
@@ -8527,7 +9618,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="31" t="s">
+      <c r="A133" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B133" s="21">
@@ -8554,7 +9645,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="32"/>
+      <c r="A134" s="43"/>
       <c r="B134" s="21">
         <v>2</v>
       </c>
@@ -8582,7 +9673,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="32"/>
+      <c r="A135" s="43"/>
       <c r="B135" s="21">
         <v>4</v>
       </c>
@@ -8611,7 +9702,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="32"/>
+      <c r="A136" s="43"/>
       <c r="B136" s="21">
         <v>8</v>
       </c>
@@ -8636,7 +9727,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="32"/>
+      <c r="A137" s="43"/>
       <c r="B137" s="21">
         <v>10</v>
       </c>
@@ -8661,7 +9752,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="33"/>
+      <c r="A138" s="44"/>
       <c r="B138" s="22">
         <v>16</v>
       </c>
@@ -8686,7 +9777,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="31" t="s">
+      <c r="A139" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B139" s="21">
@@ -8713,7 +9804,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="32"/>
+      <c r="A140" s="43"/>
       <c r="B140" s="21">
         <v>2</v>
       </c>
@@ -8738,7 +9829,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="32"/>
+      <c r="A141" s="43"/>
       <c r="B141" s="21">
         <v>4</v>
       </c>
@@ -8763,7 +9854,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="32"/>
+      <c r="A142" s="43"/>
       <c r="B142" s="21">
         <v>8</v>
       </c>
@@ -8788,7 +9879,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="32"/>
+      <c r="A143" s="43"/>
       <c r="B143" s="21">
         <v>10</v>
       </c>
@@ -8813,7 +9904,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="33"/>
+      <c r="A144" s="44"/>
       <c r="B144" s="22">
         <v>16</v>
       </c>
@@ -8863,7 +9954,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="31" t="s">
+      <c r="A149" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B149" s="21">
@@ -8891,7 +9982,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="32"/>
+      <c r="A150" s="43"/>
       <c r="B150" s="21">
         <v>2</v>
       </c>
@@ -8917,7 +10008,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="32"/>
+      <c r="A151" s="43"/>
       <c r="B151" s="21">
         <v>4</v>
       </c>
@@ -8943,7 +10034,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="32"/>
+      <c r="A152" s="43"/>
       <c r="B152" s="21">
         <v>8</v>
       </c>
@@ -8969,7 +10060,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="32"/>
+      <c r="A153" s="43"/>
       <c r="B153" s="21">
         <v>10</v>
       </c>
@@ -8995,7 +10086,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="33"/>
+      <c r="A154" s="44"/>
       <c r="B154" s="22">
         <v>16</v>
       </c>
@@ -9021,7 +10112,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="31" t="s">
+      <c r="A155" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B155" s="21">
@@ -9049,7 +10140,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="32"/>
+      <c r="A156" s="43"/>
       <c r="B156" s="21">
         <v>2</v>
       </c>
@@ -9075,7 +10166,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="32"/>
+      <c r="A157" s="43"/>
       <c r="B157" s="21">
         <v>4</v>
       </c>
@@ -9101,7 +10192,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="32"/>
+      <c r="A158" s="43"/>
       <c r="B158" s="21">
         <v>8</v>
       </c>
@@ -9127,7 +10218,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="32"/>
+      <c r="A159" s="43"/>
       <c r="B159" s="21">
         <v>10</v>
       </c>
@@ -9153,7 +10244,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="33"/>
+      <c r="A160" s="44"/>
       <c r="B160" s="22">
         <v>16</v>
       </c>
@@ -9179,7 +10270,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="31" t="s">
+      <c r="A161" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B161" s="21">
@@ -9207,7 +10298,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="32"/>
+      <c r="A162" s="43"/>
       <c r="B162" s="21">
         <v>2</v>
       </c>
@@ -9233,7 +10324,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="32"/>
+      <c r="A163" s="43"/>
       <c r="B163" s="21">
         <v>4</v>
       </c>
@@ -9259,7 +10350,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="32"/>
+      <c r="A164" s="43"/>
       <c r="B164" s="21">
         <v>8</v>
       </c>
@@ -9285,7 +10376,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="32"/>
+      <c r="A165" s="43"/>
       <c r="B165" s="21">
         <v>10</v>
       </c>
@@ -9311,7 +10402,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="33"/>
+      <c r="A166" s="44"/>
       <c r="B166" s="22">
         <v>16</v>
       </c>
@@ -9339,79 +10430,79 @@
     <row r="167" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="172" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="34"/>
-      <c r="B172" s="39">
+      <c r="A172" s="31"/>
+      <c r="B172" s="36">
         <v>1</v>
       </c>
-      <c r="C172" s="39">
+      <c r="C172" s="36">
         <v>4</v>
       </c>
-      <c r="D172" s="39">
+      <c r="D172" s="36">
         <v>8</v>
       </c>
-      <c r="E172" s="39">
+      <c r="E172" s="36">
         <v>12</v>
       </c>
-      <c r="F172" s="40">
+      <c r="F172" s="37">
         <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="37" t="s">
+      <c r="A173" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="41">
+      <c r="B173" s="38">
         <v>213.131</v>
       </c>
-      <c r="C173" s="41">
+      <c r="C173" s="38">
         <v>34.063299999999998</v>
       </c>
-      <c r="D173" s="41">
+      <c r="D173" s="38">
         <v>13.4663</v>
       </c>
-      <c r="E173" s="41">
+      <c r="E173" s="38">
         <v>11.296099999999999</v>
       </c>
-      <c r="F173" s="42">
+      <c r="F173" s="39">
         <v>7.0724400000000003</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="34"/>
-      <c r="B175" s="39">
+      <c r="A175" s="31"/>
+      <c r="B175" s="36">
         <v>1</v>
       </c>
-      <c r="C175" s="39">
+      <c r="C175" s="36">
         <v>4</v>
       </c>
-      <c r="D175" s="39">
+      <c r="D175" s="36">
         <v>8</v>
       </c>
-      <c r="E175" s="39">
+      <c r="E175" s="36">
         <v>12</v>
       </c>
-      <c r="F175" s="40">
+      <c r="F175" s="37">
         <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="41">
+      <c r="B176" s="38">
         <v>213.131</v>
       </c>
-      <c r="C176" s="41">
+      <c r="C176" s="38">
         <v>34.063299999999998</v>
       </c>
-      <c r="D176" s="41">
+      <c r="D176" s="38">
         <v>13.4663</v>
       </c>
-      <c r="E176" s="41">
+      <c r="E176" s="38">
         <v>11.296099999999999</v>
       </c>
-      <c r="F176" s="42">
+      <c r="F176" s="39">
         <v>7.0724400000000003</v>
       </c>
     </row>
@@ -9419,38 +10510,38 @@
       <c r="A177" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="43">
+      <c r="B177" s="40">
         <v>1</v>
       </c>
-      <c r="C177" s="43">
+      <c r="C177" s="40">
         <v>6.2568999999999999</v>
       </c>
-      <c r="D177" s="43">
+      <c r="D177" s="40">
         <v>15.827</v>
       </c>
-      <c r="E177" s="43">
+      <c r="E177" s="40">
         <v>18.867699999999999</v>
       </c>
-      <c r="F177" s="44">
+      <c r="F177" s="41">
         <v>30.135400000000001</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="179" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="34"/>
-      <c r="B179" s="39">
+      <c r="A179" s="31"/>
+      <c r="B179" s="36">
         <v>1</v>
       </c>
-      <c r="C179" s="39">
+      <c r="C179" s="36">
         <v>4</v>
       </c>
-      <c r="D179" s="39">
+      <c r="D179" s="36">
         <v>8</v>
       </c>
-      <c r="E179" s="39">
+      <c r="E179" s="36">
         <v>12</v>
       </c>
-      <c r="F179" s="40">
+      <c r="F179" s="37">
         <v>18</v>
       </c>
     </row>
@@ -9458,35 +10549,35 @@
       <c r="A180" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B180" s="43">
+      <c r="B180" s="40">
         <v>1</v>
       </c>
-      <c r="C180" s="43">
+      <c r="C180" s="40">
         <v>6.2568999999999999</v>
       </c>
-      <c r="D180" s="43">
+      <c r="D180" s="40">
         <v>15.827</v>
       </c>
-      <c r="E180" s="43">
+      <c r="E180" s="40">
         <v>18.867699999999999</v>
       </c>
-      <c r="F180" s="44">
+      <c r="F180" s="41">
         <v>30.135400000000001</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="207" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="34" t="s">
+      <c r="A207" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B207" s="35" t="s">
+      <c r="B207" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C207" s="35" t="s">
+      <c r="C207" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D207" s="36" t="s">
+      <c r="D207" s="33" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9500,13 +10591,690 @@
       <c r="C208" s="22">
         <v>32.3123</v>
       </c>
-      <c r="D208" s="38">
+      <c r="D208" s="35">
         <v>35.644399999999997</v>
       </c>
     </row>
     <row r="209" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="234" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="31"/>
+      <c r="B234" s="36">
+        <v>1</v>
+      </c>
+      <c r="C234" s="36">
+        <v>2</v>
+      </c>
+      <c r="D234" s="36">
+        <v>4</v>
+      </c>
+      <c r="E234" s="36">
+        <v>8</v>
+      </c>
+      <c r="F234" s="36">
+        <v>16</v>
+      </c>
+      <c r="G234" s="36">
+        <v>32</v>
+      </c>
+      <c r="H234" s="37">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="38">
+        <v>25.621200000000002</v>
+      </c>
+      <c r="C235" s="38">
+        <v>12.6427</v>
+      </c>
+      <c r="D235" s="38">
+        <v>6.3167299999999997</v>
+      </c>
+      <c r="E235" s="38">
+        <v>3.1716899999999999</v>
+      </c>
+      <c r="F235" s="38">
+        <v>1.6113599999999999</v>
+      </c>
+      <c r="G235" s="38">
+        <v>0.81815000000000004</v>
+      </c>
+      <c r="H235" s="38">
+        <v>0.41514099999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236" s="38">
+        <f>$B$235 / B235</f>
+        <v>1</v>
+      </c>
+      <c r="C236" s="38">
+        <f t="shared" ref="C236:H236" si="7">$B$235 / C235</f>
+        <v>2.0265607821114164</v>
+      </c>
+      <c r="D236" s="38">
+        <f t="shared" si="7"/>
+        <v>4.0560859811959675</v>
+      </c>
+      <c r="E236" s="38">
+        <f t="shared" si="7"/>
+        <v>8.0780908600777508</v>
+      </c>
+      <c r="F236" s="38">
+        <f t="shared" si="7"/>
+        <v>15.900357462019663</v>
+      </c>
+      <c r="G236" s="38">
+        <f t="shared" si="7"/>
+        <v>31.316017845138422</v>
+      </c>
+      <c r="H236" s="38">
+        <f t="shared" si="7"/>
+        <v>61.716862463596712</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B237" s="40">
+        <f>B236 / B234</f>
+        <v>1</v>
+      </c>
+      <c r="C237" s="40">
+        <f t="shared" ref="C237:H237" si="8">C236 / C234</f>
+        <v>1.0132803910557082</v>
+      </c>
+      <c r="D237" s="40">
+        <f t="shared" si="8"/>
+        <v>1.0140214952989919</v>
+      </c>
+      <c r="E237" s="40">
+        <f t="shared" si="8"/>
+        <v>1.0097613575097188</v>
+      </c>
+      <c r="F237" s="40">
+        <f t="shared" si="8"/>
+        <v>0.99377234137622894</v>
+      </c>
+      <c r="G237" s="40">
+        <f t="shared" si="8"/>
+        <v>0.97862555766057568</v>
+      </c>
+      <c r="H237" s="40">
+        <f t="shared" si="8"/>
+        <v>0.96432597599369863</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="260" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C260" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E260" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F260" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B261" s="45">
+        <v>1</v>
+      </c>
+      <c r="C261" s="24">
+        <v>1.11997E-2</v>
+      </c>
+      <c r="D261" s="25">
+        <v>1</v>
+      </c>
+      <c r="E261" s="24">
+        <v>1.12005E-2</v>
+      </c>
+      <c r="F261" s="25">
+        <f>$E$261 / E261</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="48"/>
+      <c r="B262" s="45">
+        <v>2</v>
+      </c>
+      <c r="C262" s="24">
+        <v>5.65403E-3</v>
+      </c>
+      <c r="D262" s="25">
+        <v>1.9808300000000001</v>
+      </c>
+      <c r="E262" s="24">
+        <v>5.7526000000000001E-3</v>
+      </c>
+      <c r="F262" s="25">
+        <f t="shared" ref="F262:F267" si="9">$E$261 / E262</f>
+        <v>1.9470326461078469</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="48"/>
+      <c r="B263" s="45">
+        <v>4</v>
+      </c>
+      <c r="C263" s="24">
+        <v>3.3534200000000002E-3</v>
+      </c>
+      <c r="D263" s="25">
+        <v>3.3397899999999998</v>
+      </c>
+      <c r="E263" s="24">
+        <v>3.0749499999999999E-3</v>
+      </c>
+      <c r="F263" s="25">
+        <f t="shared" si="9"/>
+        <v>3.6424982520040978</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="48"/>
+      <c r="B264" s="45">
+        <v>8</v>
+      </c>
+      <c r="C264" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D264" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E264" s="24">
+        <v>1.8865799999999999E-3</v>
+      </c>
+      <c r="F264" s="25">
+        <f t="shared" si="9"/>
+        <v>5.9369334987119551</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="48"/>
+      <c r="B265" s="45">
+        <v>16</v>
+      </c>
+      <c r="C265" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D265" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E265" s="24">
+        <v>1.00578E-3</v>
+      </c>
+      <c r="F265" s="25">
+        <f t="shared" si="9"/>
+        <v>11.136133150390743</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="48"/>
+      <c r="B266" s="45">
+        <v>32</v>
+      </c>
+      <c r="C266" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D266" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E266" s="24">
+        <v>5.4321600000000001E-4</v>
+      </c>
+      <c r="F266" s="25">
+        <f t="shared" si="9"/>
+        <v>20.618869841830875</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="50"/>
+      <c r="B267" s="35">
+        <v>64</v>
+      </c>
+      <c r="C267" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D267" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E267" s="26">
+        <v>3.1579500000000001E-4</v>
+      </c>
+      <c r="F267" s="25">
+        <f t="shared" si="9"/>
+        <v>35.467629316486963</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" s="45">
+        <v>1</v>
+      </c>
+      <c r="C268" s="24">
+        <v>2.35403E-2</v>
+      </c>
+      <c r="D268" s="25">
+        <v>1</v>
+      </c>
+      <c r="E268" s="24">
+        <v>2.3538900000000001E-2</v>
+      </c>
+      <c r="F268" s="25">
+        <f>$E$268 / E268</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="48"/>
+      <c r="B269" s="45">
+        <v>2</v>
+      </c>
+      <c r="C269" s="24">
+        <v>1.1806000000000001E-2</v>
+      </c>
+      <c r="D269" s="25">
+        <v>1.99393</v>
+      </c>
+      <c r="E269" s="24">
+        <v>1.17725E-2</v>
+      </c>
+      <c r="F269" s="25">
+        <f t="shared" ref="F269:F274" si="10">$E$268 / E269</f>
+        <v>1.9994818432788279</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="48"/>
+      <c r="B270" s="45">
+        <v>4</v>
+      </c>
+      <c r="C270" s="24">
+        <v>5.9527299999999998E-3</v>
+      </c>
+      <c r="D270" s="25">
+        <v>3.9545499999999998</v>
+      </c>
+      <c r="E270" s="24">
+        <v>5.8885300000000003E-3</v>
+      </c>
+      <c r="F270" s="25">
+        <f t="shared" si="10"/>
+        <v>3.9974153141785811</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="48"/>
+      <c r="B271" s="45">
+        <v>8</v>
+      </c>
+      <c r="C271" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D271" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E271" s="24">
+        <v>2.94707E-3</v>
+      </c>
+      <c r="F271" s="25">
+        <f t="shared" si="10"/>
+        <v>7.9872212061471233</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="48"/>
+      <c r="B272" s="45">
+        <v>16</v>
+      </c>
+      <c r="C272" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D272" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E272" s="24">
+        <v>1.4762600000000001E-3</v>
+      </c>
+      <c r="F272" s="25">
+        <f t="shared" si="10"/>
+        <v>15.944955495644399</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="48"/>
+      <c r="B273" s="45">
+        <v>32</v>
+      </c>
+      <c r="C273" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D273" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E273" s="24">
+        <v>9.5230599999999999E-4</v>
+      </c>
+      <c r="F273" s="25">
+        <f t="shared" si="10"/>
+        <v>24.717790290095831</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="50"/>
+      <c r="B274" s="35">
+        <v>64</v>
+      </c>
+      <c r="C274" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D274" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E274" s="26">
+        <v>4.7888199999999997E-4</v>
+      </c>
+      <c r="F274" s="25">
+        <f t="shared" si="10"/>
+        <v>49.15386253816181</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B275" s="45">
+        <v>1</v>
+      </c>
+      <c r="C275" s="24">
+        <v>0.229486</v>
+      </c>
+      <c r="D275" s="25">
+        <v>1</v>
+      </c>
+      <c r="E275" s="24">
+        <v>0.22955700000000001</v>
+      </c>
+      <c r="F275" s="25">
+        <f xml:space="preserve"> $E$275 / E275</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="48"/>
+      <c r="B276" s="45">
+        <v>2</v>
+      </c>
+      <c r="C276" s="24">
+        <v>0.11489199999999999</v>
+      </c>
+      <c r="D276" s="25">
+        <v>1.9974000000000001</v>
+      </c>
+      <c r="E276" s="24">
+        <v>0.105365</v>
+      </c>
+      <c r="F276" s="25">
+        <f t="shared" ref="F276:F281" si="11" xml:space="preserve"> $E$275 / E276</f>
+        <v>2.1786836235941727</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="48"/>
+      <c r="B277" s="45">
+        <v>4</v>
+      </c>
+      <c r="C277" s="24">
+        <v>5.7843199999999997E-2</v>
+      </c>
+      <c r="D277" s="25">
+        <v>3.9673699999999998</v>
+      </c>
+      <c r="E277" s="24">
+        <v>5.2256799999999999E-2</v>
+      </c>
+      <c r="F277" s="25">
+        <f t="shared" si="11"/>
+        <v>4.3928637038624645</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="48"/>
+      <c r="B278" s="45">
+        <v>8</v>
+      </c>
+      <c r="C278" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D278" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E278" s="24">
+        <v>2.64146E-2</v>
+      </c>
+      <c r="F278" s="25">
+        <f t="shared" si="11"/>
+        <v>8.6905347800080257</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="48"/>
+      <c r="B279" s="45">
+        <v>16</v>
+      </c>
+      <c r="C279" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D279" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E279" s="24">
+        <v>1.35523E-2</v>
+      </c>
+      <c r="F279" s="25">
+        <f t="shared" si="11"/>
+        <v>16.938600827903752</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="48"/>
+      <c r="B280" s="45">
+        <v>32</v>
+      </c>
+      <c r="C280" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D280" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E280" s="24">
+        <v>7.3590399999999999E-3</v>
+      </c>
+      <c r="F280" s="25">
+        <f t="shared" si="11"/>
+        <v>31.193878549376009</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="50"/>
+      <c r="B281" s="35">
+        <v>64</v>
+      </c>
+      <c r="C281" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D281" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E281" s="26">
+        <v>3.6397399999999998E-3</v>
+      </c>
+      <c r="F281" s="25">
+        <f t="shared" si="11"/>
+        <v>63.069614862600083</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B282" s="45">
+        <v>1</v>
+      </c>
+      <c r="C282" s="24">
+        <v>10.3133</v>
+      </c>
+      <c r="D282" s="25">
+        <v>1</v>
+      </c>
+      <c r="E282" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F282" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="48"/>
+      <c r="B283" s="45">
+        <v>2</v>
+      </c>
+      <c r="C283" s="24">
+        <v>5.3182299999999998</v>
+      </c>
+      <c r="D283" s="25">
+        <v>1.9392400000000001</v>
+      </c>
+      <c r="E283" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F283" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="48"/>
+      <c r="B284" s="45">
+        <v>4</v>
+      </c>
+      <c r="C284" s="24">
+        <v>2.82626</v>
+      </c>
+      <c r="D284" s="25">
+        <v>3.6491099999999999</v>
+      </c>
+      <c r="E284" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F284" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="48"/>
+      <c r="B285" s="45">
+        <v>8</v>
+      </c>
+      <c r="C285" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D285" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E285" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F285" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="48"/>
+      <c r="B286" s="45">
+        <v>16</v>
+      </c>
+      <c r="C286" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D286" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E286" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F286" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="48"/>
+      <c r="B287" s="45">
+        <v>32</v>
+      </c>
+      <c r="C287" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D287" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E287" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F287" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="50"/>
+      <c r="B288" s="35">
+        <v>64</v>
+      </c>
+      <c r="C288" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D288" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E288" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F288" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="A261:A267"/>
+    <mergeCell ref="A268:A274"/>
+    <mergeCell ref="A275:A281"/>
+    <mergeCell ref="A282:A288"/>
     <mergeCell ref="A161:A166"/>
     <mergeCell ref="A78:A83"/>
     <mergeCell ref="A84:A89"/>
@@ -9521,7 +11289,7 @@
     <mergeCell ref="A155:A160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>